--- a/Datos/Database by set/Set with text box/Xlsx sets/Conspiracy Promos (PCNS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Conspiracy Promos (PCNS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Magister of Worth</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{4}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Will of the council — When Magister of Worth enters the battlefield, starting with you, each player votes for grace or condemnation. If grace gets more votes, each player returns each creature card from their graveyard to the battlefield. If condemnation gets more votes or the vote is tied, destroy all creatures other than Magister of Worth.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Magister of Worth', ['{4}{W}{B}', 'Creature — Angel', 'Flying', 'Will of the council — When Magister of Worth enters the battlefield, starting with you, each player votes for grace or condemnation. If grace gets more votes, each player returns each creature card from their graveyard to the battlefield. If condemnation gets more votes or the vote is tied, destroy all creatures other than Magister of Worth.', '4/4'])</t>
         </is>
       </c>
     </row>
